--- a/GanttChart-LeafLink.xlsx
+++ b/GanttChart-LeafLink.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2377E837-B596-4ACE-9BAA-81E5993A5BCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="Scrolling_Increment">Gantt!$F$4</definedName>
     <definedName name="Today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>About This Template</t>
   </si>
@@ -48,9 +47,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Goal</t>
   </si>
   <si>
     <t>Milestone</t>
@@ -227,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="d"/>
@@ -758,6 +754,9 @@
     <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,15 +785,12 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
@@ -802,9 +798,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1088,15 +1093,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1240,12 +1236,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
       <tableStyleElement type="firstRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="25"/>
       <tableStyleElement type="headerRow" dxfId="24"/>
       <tableStyleElement type="totalRow" dxfId="23"/>
@@ -1407,8 +1403,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:G33" totalsRowShown="0">
-  <autoFilter ref="B7:G33" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones" displayName="Milestones" ref="B7:G33" totalsRowShown="0">
+  <autoFilter ref="B7:G33">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1417,12 +1413,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
-    <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" name="Assigned To" dataDxfId="0"/>
+    <tableColumn id="4" name="Progress"/>
+    <tableColumn id="5" name="Start" dataCellStyle="Date"/>
+    <tableColumn id="6" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1695,14 +1691,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1721,17 +1717,17 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
       <c r="I1" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="20"/>
@@ -1760,75 +1756,75 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="N2" s="60" t="s">
+      <c r="I2" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="N2" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
+      <c r="AC2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:64" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57">
+      <c r="D3" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="58">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>43599</v>
       </c>
-      <c r="G3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="56"/>
       <c r="F4" s="45">
         <v>0</v>
       </c>
@@ -1915,15 +1911,15 @@
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="49">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43599</v>
@@ -2151,7 +2147,7 @@
     </row>
     <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -2219,22 +2215,22 @@
     </row>
     <row r="7" spans="1:64" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>9</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>3</v>
@@ -2467,7 +2463,7 @@
     </row>
     <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="30"/>
@@ -2534,17 +2530,17 @@
     </row>
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="31">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="F9" s="32">
         <v>43599</v>
@@ -2781,13 +2777,13 @@
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="31">
         <v>1</v>
@@ -3027,13 +3023,13 @@
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="31">
         <v>1</v>
@@ -3274,16 +3270,16 @@
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="31">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="32">
         <f>F10+7</f>
@@ -3294,227 +3290,227 @@
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ref="I12:R21" ca="1" si="11">IF(AND($C12="Goal",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",I$5&gt;=$F12,I$5&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="J12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",J$5&gt;=$F12,J$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",K$5&gt;=$F12,K$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",L$5&gt;=$F12,L$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",M$5&gt;=$F12,M$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",N$5&gt;=$F12,N$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",O$5&gt;=$F12,O$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",P$5&gt;=$F12,P$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",Q$5&gt;=$F12,Q$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",R$5&gt;=$F12,R$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ref="S12:AB21" ca="1" si="12">IF(AND($C12="Goal",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",S$5&gt;=$F12,S$5&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="T12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",T$5&gt;=$F12,T$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",T$5&gt;=$F12,T$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",U$5&gt;=$F12,U$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",U$5&gt;=$F12,U$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",V$5&gt;=$F12,V$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",V$5&gt;=$F12,V$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",W$5&gt;=$F12,W$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",W$5&gt;=$F12,W$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",X$5&gt;=$F12,X$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",X$5&gt;=$F12,X$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",Y$5&gt;=$F12,Y$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",Y$5&gt;=$F12,Y$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",Z$5&gt;=$F12,Z$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",Z$5&gt;=$F12,Z$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AA$5&gt;=$F12,AA$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AA$5&gt;=$F12,AA$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AB$5&gt;=$F12,AB$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AB$5&gt;=$F12,AB$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AC$5&gt;=$F12,AC$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AC$5&gt;=$F12,AC$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ref="AC12:AL21" ca="1" si="13">IF(AND($C12="Goal",AC$5&gt;=$F12,AC$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AC$5&gt;=$F12,AC$5&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AD12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AD$5&gt;=$F12,AD$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AD$5&gt;=$F12,AD$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AE$5&gt;=$F12,AE$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AE$5&gt;=$F12,AE$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AF$5&gt;=$F12,AF$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AF$5&gt;=$F12,AF$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AG$5&gt;=$F12,AG$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AG$5&gt;=$F12,AG$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AH$5&gt;=$F12,AH$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AH$5&gt;=$F12,AH$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AI$5&gt;=$F12,AI$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AI$5&gt;=$F12,AI$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AJ$5&gt;=$F12,AJ$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AJ$5&gt;=$F12,AJ$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AK$5&gt;=$F12,AK$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AK$5&gt;=$F12,AK$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AL$5&gt;=$F12,AL$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AL$5&gt;=$F12,AL$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AM$5&gt;=$F12,AM$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AM$5&gt;=$F12,AM$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ref="AM12:AV21" ca="1" si="14">IF(AND($C12="Goal",AM$5&gt;=$F12,AM$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AM$5&gt;=$F12,AM$5&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AN12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AN$5&gt;=$F12,AN$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AN$5&gt;=$F12,AN$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AO$5&gt;=$F12,AO$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AO$5&gt;=$F12,AO$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AP$5&gt;=$F12,AP$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AP$5&gt;=$F12,AP$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AQ$5&gt;=$F12,AQ$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AQ$5&gt;=$F12,AQ$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AR$5&gt;=$F12,AR$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AR$5&gt;=$F12,AR$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AS$5&gt;=$F12,AS$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AS$5&gt;=$F12,AS$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AT$5&gt;=$F12,AT$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AT$5&gt;=$F12,AT$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AU$5&gt;=$F12,AU$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AU$5&gt;=$F12,AU$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AV$5&gt;=$F12,AV$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AV$5&gt;=$F12,AV$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AW$5&gt;=$F12,AW$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AW$5&gt;=$F12,AW$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ref="AW12:BF21" ca="1" si="15">IF(AND($C12="Goal",AW$5&gt;=$F12,AW$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AW$5&gt;=$F12,AW$5&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="AX12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AX$5&gt;=$F12,AX$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AX$5&gt;=$F12,AX$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AY$5&gt;=$F12,AY$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AY$5&gt;=$F12,AY$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",AZ$5&gt;=$F12,AZ$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",AZ$5&gt;=$F12,AZ$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BA$5&gt;=$F12,BA$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BA$5&gt;=$F12,BA$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BB$5&gt;=$F12,BB$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BB$5&gt;=$F12,BB$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BC$5&gt;=$F12,BC$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BC$5&gt;=$F12,BC$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BD$5&gt;=$F12,BD$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BD$5&gt;=$F12,BD$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BE$5&gt;=$F12,BE$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BE$5&gt;=$F12,BE$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BF$5&gt;=$F12,BF$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BF$5&gt;=$F12,BF$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BG$5&gt;=$F12,BG$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BG$5&gt;=$F12,BG$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ref="BG12:BL21" ca="1" si="16">IF(AND($C12="Goal",BG$5&gt;=$F12,BG$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BG$5&gt;=$F12,BG$5&lt;=$F12+$G12-1),1,""))</f>
         <v/>
       </c>
       <c r="BH12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BH$5&gt;=$F12,BH$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BH$5&gt;=$F12,BH$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BI$5&gt;=$F12,BI$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BI$5&gt;=$F12,BI$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BJ$5&gt;=$F12,BJ$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BJ$5&gt;=$F12,BJ$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BK$5&gt;=$F12,BK$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BK$5&gt;=$F12,BK$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL12" s="38" t="str">
-        <f ca="1">IF(AND($C12="Goal",BL$5&gt;=$F12,BL$5&lt;=$F12+$G12-1),2,IF(AND($C12="Milestone",BL$5&gt;=$F12,BL$5&lt;=$F12+$G12-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
@@ -3528,227 +3524,227 @@
       <c r="G13" s="33"/>
       <c r="H13" s="26"/>
       <c r="I13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",I$5&gt;=$F13,I$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",J$5&gt;=$F13,J$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",J$5&gt;=$F13,J$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",K$5&gt;=$F13,K$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",K$5&gt;=$F13,K$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",L$5&gt;=$F13,L$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",L$5&gt;=$F13,L$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",M$5&gt;=$F13,M$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",M$5&gt;=$F13,M$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",N$5&gt;=$F13,N$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",N$5&gt;=$F13,N$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",O$5&gt;=$F13,O$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",O$5&gt;=$F13,O$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",P$5&gt;=$F13,P$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",P$5&gt;=$F13,P$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",Q$5&gt;=$F13,Q$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",Q$5&gt;=$F13,Q$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",R$5&gt;=$F13,R$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",R$5&gt;=$F13,R$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",S$5&gt;=$F13,S$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",S$5&gt;=$F13,S$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",T$5&gt;=$F13,T$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",T$5&gt;=$F13,T$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",U$5&gt;=$F13,U$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",U$5&gt;=$F13,U$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",V$5&gt;=$F13,V$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",V$5&gt;=$F13,V$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",W$5&gt;=$F13,W$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",W$5&gt;=$F13,W$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",X$5&gt;=$F13,X$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",Y$5&gt;=$F13,Y$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",Y$5&gt;=$F13,Y$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",Z$5&gt;=$F13,Z$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",Z$5&gt;=$F13,Z$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AA$5&gt;=$F13,AA$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AA$5&gt;=$F13,AA$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AB$5&gt;=$F13,AB$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AB$5&gt;=$F13,AB$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AC$5&gt;=$F13,AC$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AC$5&gt;=$F13,AC$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AD$5&gt;=$F13,AD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AD$5&gt;=$F13,AD$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AE$5&gt;=$F13,AE$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AE$5&gt;=$F13,AE$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AF$5&gt;=$F13,AF$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AF$5&gt;=$F13,AF$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AG$5&gt;=$F13,AG$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AG$5&gt;=$F13,AG$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AH$5&gt;=$F13,AH$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AH$5&gt;=$F13,AH$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AI$5&gt;=$F13,AI$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AI$5&gt;=$F13,AI$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AJ$5&gt;=$F13,AJ$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AJ$5&gt;=$F13,AJ$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AK$5&gt;=$F13,AK$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AK$5&gt;=$F13,AK$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AL$5&gt;=$F13,AL$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AL$5&gt;=$F13,AL$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AM$5&gt;=$F13,AM$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AM$5&gt;=$F13,AM$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AN$5&gt;=$F13,AN$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AN$5&gt;=$F13,AN$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AO$5&gt;=$F13,AO$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AO$5&gt;=$F13,AO$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AP$5&gt;=$F13,AP$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AP$5&gt;=$F13,AP$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AQ$5&gt;=$F13,AQ$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AQ$5&gt;=$F13,AQ$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AR$5&gt;=$F13,AR$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AR$5&gt;=$F13,AR$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AS$5&gt;=$F13,AS$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AS$5&gt;=$F13,AS$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AT$5&gt;=$F13,AT$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AT$5&gt;=$F13,AT$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AU$5&gt;=$F13,AU$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AU$5&gt;=$F13,AU$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AV$5&gt;=$F13,AV$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AV$5&gt;=$F13,AV$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AW$5&gt;=$F13,AW$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AW$5&gt;=$F13,AW$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AX$5&gt;=$F13,AX$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AX$5&gt;=$F13,AX$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AY$5&gt;=$F13,AY$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AY$5&gt;=$F13,AY$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",AZ$5&gt;=$F13,AZ$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",AZ$5&gt;=$F13,AZ$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BA$5&gt;=$F13,BA$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BA$5&gt;=$F13,BA$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BB$5&gt;=$F13,BB$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BB$5&gt;=$F13,BB$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BC$5&gt;=$F13,BC$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BC$5&gt;=$F13,BC$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BD$5&gt;=$F13,BD$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BE$5&gt;=$F13,BE$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BE$5&gt;=$F13,BE$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BF$5&gt;=$F13,BF$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BF$5&gt;=$F13,BF$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BG$5&gt;=$F13,BG$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BG$5&gt;=$F13,BG$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BH$5&gt;=$F13,BH$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BH$5&gt;=$F13,BH$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BI$5&gt;=$F13,BI$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BI$5&gt;=$F13,BI$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BJ$5&gt;=$F13,BJ$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BJ$5&gt;=$F13,BJ$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BK$5&gt;=$F13,BK$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BK$5&gt;=$F13,BK$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL13" s="38" t="str">
-        <f ca="1">IF(AND($C13="Goal",BL$5&gt;=$F13,BL$5&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",BL$5&gt;=$F13,BL$5&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
@@ -3762,243 +3758,243 @@
       <c r="G14" s="33"/>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",J$5&gt;=$F14,J$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",J$5&gt;=$F14,J$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",K$5&gt;=$F14,K$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",K$5&gt;=$F14,K$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",L$5&gt;=$F14,L$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",L$5&gt;=$F14,L$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",M$5&gt;=$F14,M$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",M$5&gt;=$F14,M$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",N$5&gt;=$F14,N$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",N$5&gt;=$F14,N$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",O$5&gt;=$F14,O$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",O$5&gt;=$F14,O$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",P$5&gt;=$F14,P$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",P$5&gt;=$F14,P$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",Q$5&gt;=$F14,Q$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",Q$5&gt;=$F14,Q$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",R$5&gt;=$F14,R$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",R$5&gt;=$F14,R$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",S$5&gt;=$F14,S$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",S$5&gt;=$F14,S$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",T$5&gt;=$F14,T$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",T$5&gt;=$F14,T$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",U$5&gt;=$F14,U$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",U$5&gt;=$F14,U$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",V$5&gt;=$F14,V$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",V$5&gt;=$F14,V$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",W$5&gt;=$F14,W$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",W$5&gt;=$F14,W$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",X$5&gt;=$F14,X$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",X$5&gt;=$F14,X$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",Y$5&gt;=$F14,Y$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",Y$5&gt;=$F14,Y$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",Z$5&gt;=$F14,Z$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",Z$5&gt;=$F14,Z$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AA$5&gt;=$F14,AA$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AA$5&gt;=$F14,AA$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AB$5&gt;=$F14,AB$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AB$5&gt;=$F14,AB$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AC$5&gt;=$F14,AC$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AC$5&gt;=$F14,AC$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AD$5&gt;=$F14,AD$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AD$5&gt;=$F14,AD$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AE$5&gt;=$F14,AE$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AE$5&gt;=$F14,AE$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AF$5&gt;=$F14,AF$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AF$5&gt;=$F14,AF$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AG$5&gt;=$F14,AG$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AG$5&gt;=$F14,AG$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AH$5&gt;=$F14,AH$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AH$5&gt;=$F14,AH$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AI$5&gt;=$F14,AI$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AI$5&gt;=$F14,AI$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AJ$5&gt;=$F14,AJ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AJ$5&gt;=$F14,AJ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AK$5&gt;=$F14,AK$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AK$5&gt;=$F14,AK$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AL$5&gt;=$F14,AL$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AL$5&gt;=$F14,AL$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AM$5&gt;=$F14,AM$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AM$5&gt;=$F14,AM$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AN$5&gt;=$F14,AN$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AN$5&gt;=$F14,AN$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AO$5&gt;=$F14,AO$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AO$5&gt;=$F14,AO$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AP$5&gt;=$F14,AP$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AP$5&gt;=$F14,AP$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AQ$5&gt;=$F14,AQ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AQ$5&gt;=$F14,AQ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AR$5&gt;=$F14,AR$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AR$5&gt;=$F14,AR$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AS$5&gt;=$F14,AS$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AS$5&gt;=$F14,AS$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AT$5&gt;=$F14,AT$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AT$5&gt;=$F14,AT$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AU$5&gt;=$F14,AU$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AU$5&gt;=$F14,AU$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AV$5&gt;=$F14,AV$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AV$5&gt;=$F14,AV$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AW$5&gt;=$F14,AW$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AW$5&gt;=$F14,AW$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AX$5&gt;=$F14,AX$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AX$5&gt;=$F14,AX$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AY$5&gt;=$F14,AY$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AY$5&gt;=$F14,AY$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AZ$5&gt;=$F14,AZ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AZ$5&gt;=$F14,AZ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BA$5&gt;=$F14,BA$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BA$5&gt;=$F14,BA$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BB$5&gt;=$F14,BB$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BB$5&gt;=$F14,BB$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BC$5&gt;=$F14,BC$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BC$5&gt;=$F14,BC$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BD$5&gt;=$F14,BD$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BD$5&gt;=$F14,BD$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BE$5&gt;=$F14,BE$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BE$5&gt;=$F14,BE$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BF$5&gt;=$F14,BF$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BF$5&gt;=$F14,BF$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BG$5&gt;=$F14,BG$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BG$5&gt;=$F14,BG$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BH$5&gt;=$F14,BH$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BH$5&gt;=$F14,BH$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BI$5&gt;=$F14,BI$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BI$5&gt;=$F14,BI$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BJ$5&gt;=$F14,BJ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BJ$5&gt;=$F14,BJ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BK$5&gt;=$F14,BK$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BK$5&gt;=$F14,BK$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BL$5&gt;=$F14,BL$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BL$5&gt;=$F14,BL$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F15" s="32">
         <f>F10+3</f>
@@ -4009,243 +4005,243 @@
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",I$5&gt;=$F15,I$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",J$5&gt;=$F15,J$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",J$5&gt;=$F15,J$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",K$5&gt;=$F15,K$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",K$5&gt;=$F15,K$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",L$5&gt;=$F15,L$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",L$5&gt;=$F15,L$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",M$5&gt;=$F15,M$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",M$5&gt;=$F15,M$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",N$5&gt;=$F15,N$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",N$5&gt;=$F15,N$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",O$5&gt;=$F15,O$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",O$5&gt;=$F15,O$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",P$5&gt;=$F15,P$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",P$5&gt;=$F15,P$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",Q$5&gt;=$F15,Q$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Q$5&gt;=$F15,Q$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",R$5&gt;=$F15,R$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",R$5&gt;=$F15,R$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",S$5&gt;=$F15,S$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",S$5&gt;=$F15,S$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",T$5&gt;=$F15,T$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",T$5&gt;=$F15,T$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",U$5&gt;=$F15,U$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",U$5&gt;=$F15,U$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",V$5&gt;=$F15,V$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",V$5&gt;=$F15,V$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",W$5&gt;=$F15,W$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",W$5&gt;=$F15,W$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",X$5&gt;=$F15,X$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",X$5&gt;=$F15,X$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",Y$5&gt;=$F15,Y$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Y$5&gt;=$F15,Y$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",Z$5&gt;=$F15,Z$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Z$5&gt;=$F15,Z$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AA$5&gt;=$F15,AA$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AA$5&gt;=$F15,AA$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AB$5&gt;=$F15,AB$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AB$5&gt;=$F15,AB$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AC$5&gt;=$F15,AC$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AC$5&gt;=$F15,AC$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AD$5&gt;=$F15,AD$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AD$5&gt;=$F15,AD$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AE$5&gt;=$F15,AE$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AE$5&gt;=$F15,AE$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AF$5&gt;=$F15,AF$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AF$5&gt;=$F15,AF$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AG$5&gt;=$F15,AG$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AG$5&gt;=$F15,AG$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AH$5&gt;=$F15,AH$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AH$5&gt;=$F15,AH$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AI$5&gt;=$F15,AI$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AI$5&gt;=$F15,AI$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AJ$5&gt;=$F15,AJ$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AJ$5&gt;=$F15,AJ$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AK$5&gt;=$F15,AK$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AK$5&gt;=$F15,AK$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AL$5&gt;=$F15,AL$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AL$5&gt;=$F15,AL$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AM$5&gt;=$F15,AM$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AM$5&gt;=$F15,AM$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AN$5&gt;=$F15,AN$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AN$5&gt;=$F15,AN$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AO$5&gt;=$F15,AO$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AO$5&gt;=$F15,AO$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AP$5&gt;=$F15,AP$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AP$5&gt;=$F15,AP$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AQ$5&gt;=$F15,AQ$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AQ$5&gt;=$F15,AQ$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AR$5&gt;=$F15,AR$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AR$5&gt;=$F15,AR$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AS$5&gt;=$F15,AS$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AS$5&gt;=$F15,AS$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AT$5&gt;=$F15,AT$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AT$5&gt;=$F15,AT$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AU$5&gt;=$F15,AU$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AU$5&gt;=$F15,AU$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AV$5&gt;=$F15,AV$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AV$5&gt;=$F15,AV$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AW$5&gt;=$F15,AW$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AW$5&gt;=$F15,AW$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AX$5&gt;=$F15,AX$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AX$5&gt;=$F15,AX$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AY$5&gt;=$F15,AY$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AY$5&gt;=$F15,AY$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",AZ$5&gt;=$F15,AZ$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",AZ$5&gt;=$F15,AZ$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BA$5&gt;=$F15,BA$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BA$5&gt;=$F15,BA$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BB$5&gt;=$F15,BB$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BB$5&gt;=$F15,BB$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BC$5&gt;=$F15,BC$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BC$5&gt;=$F15,BC$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BD$5&gt;=$F15,BD$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BD$5&gt;=$F15,BD$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BE$5&gt;=$F15,BE$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BE$5&gt;=$F15,BE$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BF$5&gt;=$F15,BF$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BF$5&gt;=$F15,BF$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BG$5&gt;=$F15,BG$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BG$5&gt;=$F15,BG$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BH$5&gt;=$F15,BH$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BH$5&gt;=$F15,BH$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BI$5&gt;=$F15,BI$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BI$5&gt;=$F15,BI$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BJ$5&gt;=$F15,BJ$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BJ$5&gt;=$F15,BJ$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BK$5&gt;=$F15,BK$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BK$5&gt;=$F15,BK$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL15" s="38" t="str">
-        <f ca="1">IF(AND($C15="Goal",BL$5&gt;=$F15,BL$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",BL$5&gt;=$F15,BL$5&lt;=$F15+$G15-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" s="31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F16" s="32">
         <v>43615</v>
@@ -4255,243 +4251,243 @@
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",I$5&gt;=$F16,I$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",J$5&gt;=$F16,J$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",J$5&gt;=$F16,J$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",K$5&gt;=$F16,K$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",K$5&gt;=$F16,K$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",L$5&gt;=$F16,L$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",L$5&gt;=$F16,L$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",M$5&gt;=$F16,M$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",M$5&gt;=$F16,M$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",N$5&gt;=$F16,N$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",N$5&gt;=$F16,N$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",O$5&gt;=$F16,O$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",O$5&gt;=$F16,O$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",Q$5&gt;=$F16,Q$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Q$5&gt;=$F16,Q$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",R$5&gt;=$F16,R$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",R$5&gt;=$F16,R$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",T$5&gt;=$F16,T$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",T$5&gt;=$F16,T$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",U$5&gt;=$F16,U$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",U$5&gt;=$F16,U$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",V$5&gt;=$F16,V$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",V$5&gt;=$F16,V$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",X$5&gt;=$F16,X$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",X$5&gt;=$F16,X$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y16" s="38">
-        <f ca="1">IF(AND($C16="Goal",Y$5&gt;=$F16,Y$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Y$5&gt;=$F16,Y$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="Z16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",Z$5&gt;=$F16,Z$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",Z$5&gt;=$F16,Z$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AA$5&gt;=$F16,AA$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AA$5&gt;=$F16,AA$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AB$5&gt;=$F16,AB$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AB$5&gt;=$F16,AB$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AC$5&gt;=$F16,AC$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AC$5&gt;=$F16,AC$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AD$5&gt;=$F16,AD$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AD$5&gt;=$F16,AD$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AE$5&gt;=$F16,AE$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AE$5&gt;=$F16,AE$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AF$5&gt;=$F16,AF$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AF$5&gt;=$F16,AF$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AG$5&gt;=$F16,AG$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AG$5&gt;=$F16,AG$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AH$5&gt;=$F16,AH$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AH$5&gt;=$F16,AH$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AI$5&gt;=$F16,AI$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AI$5&gt;=$F16,AI$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AJ$5&gt;=$F16,AJ$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AJ$5&gt;=$F16,AJ$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AK$5&gt;=$F16,AK$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AK$5&gt;=$F16,AK$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AL$5&gt;=$F16,AL$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AL$5&gt;=$F16,AL$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AM$5&gt;=$F16,AM$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AM$5&gt;=$F16,AM$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AN$5&gt;=$F16,AN$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AN$5&gt;=$F16,AN$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AO$5&gt;=$F16,AO$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AO$5&gt;=$F16,AO$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AP$5&gt;=$F16,AP$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AP$5&gt;=$F16,AP$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AQ$5&gt;=$F16,AQ$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AQ$5&gt;=$F16,AQ$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AR$5&gt;=$F16,AR$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AR$5&gt;=$F16,AR$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AS$5&gt;=$F16,AS$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AS$5&gt;=$F16,AS$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AT$5&gt;=$F16,AT$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AT$5&gt;=$F16,AT$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AU$5&gt;=$F16,AU$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AU$5&gt;=$F16,AU$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AV$5&gt;=$F16,AV$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AV$5&gt;=$F16,AV$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AW$5&gt;=$F16,AW$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AW$5&gt;=$F16,AW$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AX$5&gt;=$F16,AX$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AX$5&gt;=$F16,AX$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AY$5&gt;=$F16,AY$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AY$5&gt;=$F16,AY$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",AZ$5&gt;=$F16,AZ$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",AZ$5&gt;=$F16,AZ$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BA$5&gt;=$F16,BA$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BA$5&gt;=$F16,BA$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BB$5&gt;=$F16,BB$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BB$5&gt;=$F16,BB$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BC$5&gt;=$F16,BC$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BC$5&gt;=$F16,BC$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BD$5&gt;=$F16,BD$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BD$5&gt;=$F16,BD$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BE$5&gt;=$F16,BE$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BE$5&gt;=$F16,BE$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BF$5&gt;=$F16,BF$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BF$5&gt;=$F16,BF$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BG$5&gt;=$F16,BG$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BG$5&gt;=$F16,BG$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BH$5&gt;=$F16,BH$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BH$5&gt;=$F16,BH$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BI$5&gt;=$F16,BI$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BI$5&gt;=$F16,BI$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BJ$5&gt;=$F16,BJ$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BJ$5&gt;=$F16,BJ$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BK$5&gt;=$F16,BK$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BK$5&gt;=$F16,BK$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL16" s="38" t="str">
-        <f ca="1">IF(AND($C16="Goal",BL$5&gt;=$F16,BL$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",BL$5&gt;=$F16,BL$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="62" t="s">
-        <v>53</v>
+      <c r="B17" s="52" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="32">
         <v>43615</v>
@@ -4501,241 +4497,241 @@
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",P$5&gt;=$F17,P$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",P$5&gt;=$F17,P$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",Q$5&gt;=$F17,Q$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Q$5&gt;=$F17,Q$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",S$5&gt;=$F17,S$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",S$5&gt;=$F17,S$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",T$5&gt;=$F17,T$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",T$5&gt;=$F17,T$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",U$5&gt;=$F17,U$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",U$5&gt;=$F17,U$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",V$5&gt;=$F17,V$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",V$5&gt;=$F17,V$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",W$5&gt;=$F17,W$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",W$5&gt;=$F17,W$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y17" s="38">
-        <f ca="1">IF(AND($C17="Goal",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="Z17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL17" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="32">
         <v>43616</v>
@@ -4745,243 +4741,243 @@
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",S$5&gt;=$F18,S$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",S$5&gt;=$F18,S$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",T$5&gt;=$F18,T$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",T$5&gt;=$F18,T$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",U$5&gt;=$F18,U$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",U$5&gt;=$F18,U$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",V$5&gt;=$F18,V$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",V$5&gt;=$F18,V$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",W$5&gt;=$F18,W$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",W$5&gt;=$F18,W$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL18" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>47</v>
-      </c>
       <c r="E19" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="32">
         <v>43616</v>
@@ -4991,487 +4987,487 @@
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z19" s="38">
-        <f ca="1">IF(AND($C19="Goal",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AA19" s="38">
-        <f ca="1">IF(AND($C19="Goal",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AB19" s="38">
-        <f ca="1">IF(AND($C19="Goal",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),1,""))</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="Z19" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AA19" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AB19" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="AC19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL19" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="31">
-        <v>3.0000000000000001E-3</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F20" s="32">
         <v>43618</v>
       </c>
       <c r="G20" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL20" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="31">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F21" s="32">
         <v>43617</v>
@@ -5481,243 +5477,243 @@
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA21" s="38">
-        <f ca="1">IF(AND($C21="Goal",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AB21" s="38">
-        <f ca="1">IF(AND($C21="Goal",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),1,""))</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AA21" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="AB21" s="38" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
       </c>
       <c r="AC21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL21" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="32">
         <v>43619</v>
@@ -5727,240 +5723,240 @@
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="I22:R33" ca="1" si="17">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",J$5&gt;=$F22,J$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",J$5&gt;=$F22,J$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",K$5&gt;=$F22,K$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",K$5&gt;=$F22,K$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",L$5&gt;=$F22,L$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",L$5&gt;=$F22,L$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",M$5&gt;=$F22,M$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",M$5&gt;=$F22,M$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",N$5&gt;=$F22,N$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",N$5&gt;=$F22,N$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",O$5&gt;=$F22,O$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",O$5&gt;=$F22,O$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",P$5&gt;=$F22,P$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",P$5&gt;=$F22,P$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",Q$5&gt;=$F22,Q$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Q$5&gt;=$F22,Q$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",R$5&gt;=$F22,R$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",R$5&gt;=$F22,R$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",S$5&gt;=$F22,S$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",S$5&gt;=$F22,S$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="S22:AB33" ca="1" si="18">IF(AND($C22="Goal",S$5&gt;=$F22,S$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",S$5&gt;=$F22,S$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="T22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",T$5&gt;=$F22,T$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",T$5&gt;=$F22,T$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",W$5&gt;=$F22,W$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",W$5&gt;=$F22,W$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",Z$5&gt;=$F22,Z$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Z$5&gt;=$F22,Z$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AA$5&gt;=$F22,AA$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AA$5&gt;=$F22,AA$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AB$5&gt;=$F22,AB$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AB$5&gt;=$F22,AB$5&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC22" s="38">
-        <f ca="1">IF(AND($C22="Goal",AC$5&gt;=$F22,AC$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AC$5&gt;=$F22,AC$5&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AD22" s="38">
-        <f ca="1">IF(AND($C22="Goal",AD$5&gt;=$F22,AD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AD$5&gt;=$F22,AD$5&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="AC22" s="38" t="str">
+        <f t="shared" ref="AC22:AL33" ca="1" si="19">IF(AND($C22="Goal",AC$5&gt;=$F22,AC$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AC$5&gt;=$F22,AC$5&lt;=$F22+$G22-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AD22" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
       </c>
       <c r="AE22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AG$5&gt;=$F22,AG$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AG$5&gt;=$F22,AG$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AH$5&gt;=$F22,AH$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AH$5&gt;=$F22,AH$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AI$5&gt;=$F22,AI$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AI$5&gt;=$F22,AI$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AJ$5&gt;=$F22,AJ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AJ$5&gt;=$F22,AJ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AK$5&gt;=$F22,AK$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AK$5&gt;=$F22,AK$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AL$5&gt;=$F22,AL$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AL$5&gt;=$F22,AL$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AM$5&gt;=$F22,AM$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AM$5&gt;=$F22,AM$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="AM22:AV33" ca="1" si="20">IF(AND($C22="Goal",AM$5&gt;=$F22,AM$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AM$5&gt;=$F22,AM$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AN22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AN$5&gt;=$F22,AN$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AN$5&gt;=$F22,AN$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AP$5&gt;=$F22,AP$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AP$5&gt;=$F22,AP$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AQ$5&gt;=$F22,AQ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AQ$5&gt;=$F22,AQ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AR$5&gt;=$F22,AR$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AR$5&gt;=$F22,AR$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AS$5&gt;=$F22,AS$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AS$5&gt;=$F22,AS$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AT$5&gt;=$F22,AT$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AT$5&gt;=$F22,AT$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AU$5&gt;=$F22,AU$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AU$5&gt;=$F22,AU$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AV$5&gt;=$F22,AV$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AV$5&gt;=$F22,AV$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AW$5&gt;=$F22,AW$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AW$5&gt;=$F22,AW$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="AW22:BF33" ca="1" si="21">IF(AND($C22="Goal",AW$5&gt;=$F22,AW$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AW$5&gt;=$F22,AW$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AX22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AX$5&gt;=$F22,AX$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AX$5&gt;=$F22,AX$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AY$5&gt;=$F22,AY$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AY$5&gt;=$F22,AY$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AZ$5&gt;=$F22,AZ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AZ$5&gt;=$F22,AZ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BA$5&gt;=$F22,BA$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BA$5&gt;=$F22,BA$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BB$5&gt;=$F22,BB$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BB$5&gt;=$F22,BB$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BC$5&gt;=$F22,BC$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BC$5&gt;=$F22,BC$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BE$5&gt;=$F22,BE$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BE$5&gt;=$F22,BE$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BF$5&gt;=$F22,BF$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BF$5&gt;=$F22,BF$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BG$5&gt;=$F22,BG$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BG$5&gt;=$F22,BG$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="BG22:BL33" ca="1" si="22">IF(AND($C22="Goal",BG$5&gt;=$F22,BG$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BG$5&gt;=$F22,BG$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="BH22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BH$5&gt;=$F22,BH$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BH$5&gt;=$F22,BH$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BI$5&gt;=$F22,BI$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BI$5&gt;=$F22,BI$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BJ$5&gt;=$F22,BJ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BJ$5&gt;=$F22,BJ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BK$5&gt;=$F22,BK$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BK$5&gt;=$F22,BK$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL22" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BL$5&gt;=$F22,BL$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BL$5&gt;=$F22,BL$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="31">
         <v>0</v>
@@ -5973,227 +5969,227 @@
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",J$5&gt;=$F23,J$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",J$5&gt;=$F23,J$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",K$5&gt;=$F23,K$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",K$5&gt;=$F23,K$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",L$5&gt;=$F23,L$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",L$5&gt;=$F23,L$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",M$5&gt;=$F23,M$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",M$5&gt;=$F23,M$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",N$5&gt;=$F23,N$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",N$5&gt;=$F23,N$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",O$5&gt;=$F23,O$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",O$5&gt;=$F23,O$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",P$5&gt;=$F23,P$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",P$5&gt;=$F23,P$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",Q$5&gt;=$F23,Q$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Q$5&gt;=$F23,Q$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",R$5&gt;=$F23,R$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",R$5&gt;=$F23,R$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",S$5&gt;=$F23,S$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",S$5&gt;=$F23,S$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",T$5&gt;=$F23,T$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",T$5&gt;=$F23,T$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",U$5&gt;=$F23,U$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",U$5&gt;=$F23,U$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",V$5&gt;=$F23,V$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",V$5&gt;=$F23,V$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",W$5&gt;=$F23,W$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",W$5&gt;=$F23,W$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",Z$5&gt;=$F23,Z$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Z$5&gt;=$F23,Z$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AA$5&gt;=$F23,AA$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AA$5&gt;=$F23,AA$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AB$5&gt;=$F23,AB$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AB$5&gt;=$F23,AB$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AC$5&gt;=$F23,AC$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AC$5&gt;=$F23,AC$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AD$5&gt;=$F23,AD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AD$5&gt;=$F23,AD$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AE$5&gt;=$F23,AE$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AE$5&gt;=$F23,AE$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF23" s="38">
-        <f ca="1">IF(AND($C23="Goal",AF$5&gt;=$F23,AF$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AF$5&gt;=$F23,AF$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>1</v>
       </c>
       <c r="AG23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AG$5&gt;=$F23,AG$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AG$5&gt;=$F23,AG$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AH$5&gt;=$F23,AH$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AH$5&gt;=$F23,AH$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AI$5&gt;=$F23,AI$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AI$5&gt;=$F23,AI$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AJ$5&gt;=$F23,AJ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AJ$5&gt;=$F23,AJ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AK$5&gt;=$F23,AK$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AK$5&gt;=$F23,AK$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AL$5&gt;=$F23,AL$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AL$5&gt;=$F23,AL$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AM$5&gt;=$F23,AM$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AM$5&gt;=$F23,AM$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AN$5&gt;=$F23,AN$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AN$5&gt;=$F23,AN$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AP$5&gt;=$F23,AP$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AP$5&gt;=$F23,AP$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AQ$5&gt;=$F23,AQ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AQ$5&gt;=$F23,AQ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AR$5&gt;=$F23,AR$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AR$5&gt;=$F23,AR$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AS$5&gt;=$F23,AS$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AS$5&gt;=$F23,AS$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AT$5&gt;=$F23,AT$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AT$5&gt;=$F23,AT$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AU$5&gt;=$F23,AU$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AU$5&gt;=$F23,AU$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AV$5&gt;=$F23,AV$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AV$5&gt;=$F23,AV$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AW$5&gt;=$F23,AW$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AW$5&gt;=$F23,AW$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AX$5&gt;=$F23,AX$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AX$5&gt;=$F23,AX$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AY$5&gt;=$F23,AY$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AY$5&gt;=$F23,AY$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AZ$5&gt;=$F23,AZ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AZ$5&gt;=$F23,AZ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BA$5&gt;=$F23,BA$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BA$5&gt;=$F23,BA$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BB$5&gt;=$F23,BB$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BB$5&gt;=$F23,BB$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BC$5&gt;=$F23,BC$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BC$5&gt;=$F23,BC$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BE$5&gt;=$F23,BE$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BE$5&gt;=$F23,BE$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BF$5&gt;=$F23,BF$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BF$5&gt;=$F23,BF$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BG$5&gt;=$F23,BG$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BG$5&gt;=$F23,BG$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BH$5&gt;=$F23,BH$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BH$5&gt;=$F23,BH$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BI$5&gt;=$F23,BI$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BI$5&gt;=$F23,BI$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BJ$5&gt;=$F23,BJ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BJ$5&gt;=$F23,BJ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BK$5&gt;=$F23,BK$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BK$5&gt;=$F23,BK$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL23" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BL$5&gt;=$F23,BL$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BL$5&gt;=$F23,BL$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -6207,227 +6203,227 @@
       <c r="G24" s="33"/>
       <c r="H24" s="26"/>
       <c r="I24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL24" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -6441,227 +6437,227 @@
       <c r="G25" s="33"/>
       <c r="H25" s="26"/>
       <c r="I25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL25" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -6675,227 +6671,227 @@
       <c r="G26" s="33"/>
       <c r="H26" s="26"/>
       <c r="I26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL26" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -6909,227 +6905,227 @@
       <c r="G27" s="33"/>
       <c r="H27" s="26"/>
       <c r="I27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL27" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -7143,227 +7139,227 @@
       <c r="G28" s="33"/>
       <c r="H28" s="26"/>
       <c r="I28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL28" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -7377,227 +7373,227 @@
       <c r="G29" s="33"/>
       <c r="H29" s="26"/>
       <c r="I29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL29" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -7611,227 +7607,227 @@
       <c r="G30" s="33"/>
       <c r="H30" s="26"/>
       <c r="I30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL30" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -7845,227 +7841,227 @@
       <c r="G31" s="33"/>
       <c r="H31" s="26"/>
       <c r="I31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL31" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -8079,227 +8075,227 @@
       <c r="G32" s="33"/>
       <c r="H32" s="26"/>
       <c r="I32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL32" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -8315,236 +8311,236 @@
       <c r="G33" s="33"/>
       <c r="H33" s="26"/>
       <c r="I33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",J$5&gt;=$F33,J$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",J$5&gt;=$F33,J$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",K$5&gt;=$F33,K$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",K$5&gt;=$F33,K$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",L$5&gt;=$F33,L$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",L$5&gt;=$F33,L$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",M$5&gt;=$F33,M$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",M$5&gt;=$F33,M$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",N$5&gt;=$F33,N$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",N$5&gt;=$F33,N$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",O$5&gt;=$F33,O$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",O$5&gt;=$F33,O$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",P$5&gt;=$F33,P$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",P$5&gt;=$F33,P$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Q$5&gt;=$F33,Q$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Q$5&gt;=$F33,Q$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",R$5&gt;=$F33,R$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",R$5&gt;=$F33,R$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",S$5&gt;=$F33,S$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",S$5&gt;=$F33,S$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",T$5&gt;=$F33,T$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",T$5&gt;=$F33,T$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",U$5&gt;=$F33,U$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",U$5&gt;=$F33,U$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",V$5&gt;=$F33,V$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",V$5&gt;=$F33,V$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",W$5&gt;=$F33,W$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",W$5&gt;=$F33,W$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",X$5&gt;=$F33,X$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",X$5&gt;=$F33,X$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Z$5&gt;=$F33,Z$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Z$5&gt;=$F33,Z$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AA$5&gt;=$F33,AA$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AA$5&gt;=$F33,AA$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AB$5&gt;=$F33,AB$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AB$5&gt;=$F33,AB$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AC$5&gt;=$F33,AC$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AC$5&gt;=$F33,AC$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AD$5&gt;=$F33,AD$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AD$5&gt;=$F33,AD$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AE$5&gt;=$F33,AE$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AE$5&gt;=$F33,AE$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AF$5&gt;=$F33,AF$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AF$5&gt;=$F33,AF$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AG$5&gt;=$F33,AG$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AG$5&gt;=$F33,AG$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AH$5&gt;=$F33,AH$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AH$5&gt;=$F33,AH$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AI$5&gt;=$F33,AI$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AI$5&gt;=$F33,AI$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AJ$5&gt;=$F33,AJ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AJ$5&gt;=$F33,AJ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AK$5&gt;=$F33,AK$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AK$5&gt;=$F33,AK$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AL$5&gt;=$F33,AL$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AL$5&gt;=$F33,AL$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AM$5&gt;=$F33,AM$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AM$5&gt;=$F33,AM$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AP$5&gt;=$F33,AP$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AP$5&gt;=$F33,AP$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AQ$5&gt;=$F33,AQ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AQ$5&gt;=$F33,AQ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AR$5&gt;=$F33,AR$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AR$5&gt;=$F33,AR$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AS$5&gt;=$F33,AS$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AS$5&gt;=$F33,AS$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AT$5&gt;=$F33,AT$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AT$5&gt;=$F33,AT$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AU$5&gt;=$F33,AU$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AU$5&gt;=$F33,AU$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AV$5&gt;=$F33,AV$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AV$5&gt;=$F33,AV$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AW$5&gt;=$F33,AW$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AW$5&gt;=$F33,AW$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AX$5&gt;=$F33,AX$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AX$5&gt;=$F33,AX$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AY$5&gt;=$F33,AY$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AY$5&gt;=$F33,AY$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AZ$5&gt;=$F33,AZ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AZ$5&gt;=$F33,AZ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BA$5&gt;=$F33,BA$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BA$5&gt;=$F33,BA$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BB$5&gt;=$F33,BB$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BB$5&gt;=$F33,BB$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BC$5&gt;=$F33,BC$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BC$5&gt;=$F33,BC$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BD$5&gt;=$F33,BD$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BD$5&gt;=$F33,BD$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BE$5&gt;=$F33,BE$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BE$5&gt;=$F33,BE$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BF$5&gt;=$F33,BF$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BF$5&gt;=$F33,BF$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BG$5&gt;=$F33,BG$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BG$5&gt;=$F33,BG$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BH$5&gt;=$F33,BH$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BH$5&gt;=$F33,BH$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BI$5&gt;=$F33,BI$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BI$5&gt;=$F33,BI$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BJ$5&gt;=$F33,BJ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BJ$5&gt;=$F33,BJ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BK$5&gt;=$F33,BK$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BK$5&gt;=$F33,BK$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL33" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BL$5&gt;=$F33,BL$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BL$5&gt;=$F33,BL$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
@@ -8644,67 +8640,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL33">
-    <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="61" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="62" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="4" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="71" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="72" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="75" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C33" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C33">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8810,7 +8806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -8830,7 +8826,7 @@
     </row>
     <row r="2" spans="1:1" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8840,12 +8836,12 @@
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
